--- a/downloaded_files/STRS408_Tutorial-35118.xlsx
+++ b/downloaded_files/STRS408_Tutorial-35118.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -76,6 +76,15 @@
   </x:si>
   <x:si>
     <x:t>Omar Ahmed Hamed Amin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1180022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر حسن بدر عبدالدايم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Hassan Badr Abdel - Dayem</x:t>
   </x:si>
   <x:si>
     <x:t>1200215</x:t>
@@ -254,7 +263,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E13" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E14" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -554,7 +563,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T13"/>
+  <x:dimension ref="A1:T14"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -805,7 +814,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.4210342593</x:v>
+        <x:v>45927.4702172801</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -837,7 +846,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.416840544</x:v>
+        <x:v>45906.4210342593</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -869,7 +878,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.6790697917</x:v>
+        <x:v>45906.416840544</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -901,7 +910,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6666420139</x:v>
+        <x:v>45906.6790697917</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -933,7 +942,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45913.4396314815</x:v>
+        <x:v>45906.6666420139</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -965,7 +974,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45912.4090801273</x:v>
+        <x:v>45913.4396314815</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -997,7 +1006,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.4146375347</x:v>
+        <x:v>45912.4090801273</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1014,6 +1023,38 @@
       <x:c r="R13" s="2" t="s"/>
       <x:c r="S13" s="2" t="s"/>
       <x:c r="T13" s="2" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:20">
+      <x:c r="A14" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B14" s="2" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D14" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="E14" s="3">
+        <x:v>45906.4146375347</x:v>
+      </x:c>
+      <x:c r="F14" s="2" t="s"/>
+      <x:c r="G14" s="2" t="s"/>
+      <x:c r="H14" s="2" t="s"/>
+      <x:c r="I14" s="2" t="s"/>
+      <x:c r="J14" s="2" t="s"/>
+      <x:c r="K14" s="2" t="s"/>
+      <x:c r="L14" s="2" t="s"/>
+      <x:c r="M14" s="2" t="s"/>
+      <x:c r="N14" s="2" t="s"/>
+      <x:c r="O14" s="2" t="s"/>
+      <x:c r="P14" s="2" t="s"/>
+      <x:c r="Q14" s="2" t="s"/>
+      <x:c r="R14" s="2" t="s"/>
+      <x:c r="S14" s="2" t="s"/>
+      <x:c r="T14" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/STRS408_Tutorial-35118.xlsx
+++ b/downloaded_files/STRS408_Tutorial-35118.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -67,15 +67,6 @@
   </x:si>
   <x:si>
     <x:t>Ali Ahmed Ibrahim Elkeie</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1125371</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر احمد حامد امين</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Ahmed Hamed Amin</x:t>
   </x:si>
   <x:si>
     <x:t>1180022</x:t>
@@ -263,7 +254,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E14" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E13" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -563,7 +554,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T14"/>
+  <x:dimension ref="A1:T13"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -782,7 +773,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45909.4867886574</x:v>
+        <x:v>45927.4702172801</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -814,7 +805,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45927.4702172801</x:v>
+        <x:v>45906.4210342593</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -846,7 +837,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.4210342593</x:v>
+        <x:v>45906.416840544</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -878,7 +869,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.416840544</x:v>
+        <x:v>45906.6790697917</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -910,7 +901,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6790697917</x:v>
+        <x:v>45906.6666420139</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -942,7 +933,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6666420139</x:v>
+        <x:v>45913.4396314815</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -974,7 +965,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45913.4396314815</x:v>
+        <x:v>45912.4090801273</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1006,7 +997,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45912.4090801273</x:v>
+        <x:v>45906.4146375347</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1023,38 +1014,6 @@
       <x:c r="R13" s="2" t="s"/>
       <x:c r="S13" s="2" t="s"/>
       <x:c r="T13" s="2" t="s"/>
-    </x:row>
-    <x:row r="14" spans="1:20">
-      <x:c r="A14" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B14" s="2" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="C14" s="2" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="D14" s="2" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="E14" s="3">
-        <x:v>45906.4146375347</x:v>
-      </x:c>
-      <x:c r="F14" s="2" t="s"/>
-      <x:c r="G14" s="2" t="s"/>
-      <x:c r="H14" s="2" t="s"/>
-      <x:c r="I14" s="2" t="s"/>
-      <x:c r="J14" s="2" t="s"/>
-      <x:c r="K14" s="2" t="s"/>
-      <x:c r="L14" s="2" t="s"/>
-      <x:c r="M14" s="2" t="s"/>
-      <x:c r="N14" s="2" t="s"/>
-      <x:c r="O14" s="2" t="s"/>
-      <x:c r="P14" s="2" t="s"/>
-      <x:c r="Q14" s="2" t="s"/>
-      <x:c r="R14" s="2" t="s"/>
-      <x:c r="S14" s="2" t="s"/>
-      <x:c r="T14" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
